--- a/biology/Zoologie/Florence_Ollivet-Courtois/Florence_Ollivet-Courtois.xlsx
+++ b/biology/Zoologie/Florence_Ollivet-Courtois/Florence_Ollivet-Courtois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florence Ollivet-Courtois est une vétérinaire française exerçant dans la faune sauvage et exotique. 
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Issue de quatre générations de vétérinaires, Florence Ollivet-Courtois effectue ses études à l'École nationale vétérinaire d'Alfort[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issue de quatre générations de vétérinaires, Florence Ollivet-Courtois effectue ses études à l'École nationale vétérinaire d'Alfort.
 Vétérinaire en libéral de mars 2003 à décembre 2022[réf. nécessaire], elle exerce auprès de parcs animaliers, de fondations et d'animaux de spectacle ou de particuliers. En septembre 2022, elle entre à l'école nationale des services vétérinaires (ENSV)[réf. nécessaire]
-Impliquée dans des programmes de suivi liés à la faune sauvage, elle met également au point un protocole de relevage d'éléphants, chez qui le fait de rester couché peut être fatal, qui est adopté par plusieurs parcs zoologiques[1].
-Publié en 2012, son ouvrage Un éléphant dans ma salle d'attente, aventures d'une vétérinaire reçoit le prix Jacques-Lacroix de l'Académie française[2], tandis que Florence Ollivet-Courtois reçoit avec Sylvie Overnoy le prix Achille Urbain[3].
-Elle est également colonelle des sapeurs pompiers au SDIS 91[4] et membre de l'association française des vétérinaires sapeurs pompiers[réf. nécessaire]
+Impliquée dans des programmes de suivi liés à la faune sauvage, elle met également au point un protocole de relevage d'éléphants, chez qui le fait de rester couché peut être fatal, qui est adopté par plusieurs parcs zoologiques.
+Publié en 2012, son ouvrage Un éléphant dans ma salle d'attente, aventures d'une vétérinaire reçoit le prix Jacques-Lacroix de l'Académie française, tandis que Florence Ollivet-Courtois reçoit avec Sylvie Overnoy le prix Achille Urbain.
+Elle est également colonelle des sapeurs pompiers au SDIS 91 et membre de l'association française des vétérinaires sapeurs pompiers[réf. nécessaire]
 Elle est maître de conférences pour l'année académique 2022-2023 dans le cadre du certificat d'université de vétérinaire urgentiste secours et catastrophe de la faculté de médecine vétérinaire de Liège[réf. nécessaire].
 </t>
         </is>
